--- a/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
@@ -656,19 +656,19 @@
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
         <v>2.08</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
@@ -811,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="U3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
@@ -1145,13 +1145,13 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1160,10 +1160,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1505,13 +1505,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
@@ -1520,16 +1520,16 @@
         <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
         <v>1.44</v>
@@ -1544,19 +1544,19 @@
         <v>1.8</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
@@ -1568,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
@@ -1577,22 +1577,22 @@
         <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>34</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
@@ -769,79 +769,79 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -853,7 +853,7 @@
         <v>81</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -952,36 +952,80 @@
           <t>BFC Daugavpils</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.07</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>29</v>
+      </c>
+      <c r="X5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1014,36 +1058,80 @@
           <t>Jelgava</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.78</v>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>14</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>32</v>
+      </c>
+      <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1076,36 +1164,84 @@
           <t>FK Liepaja</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.45</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W7" t="n">
+        <v>25</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1160,10 +1296,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1261,13 +1397,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1300,7 +1436,7 @@
         <v>1.83</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U9" t="n">
         <v>7.5</v>
@@ -1309,7 +1445,7 @@
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1383,22 +1519,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
         <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
         <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
@@ -1422,7 +1558,7 @@
         <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U10" t="n">
         <v>7</v>
@@ -1431,7 +1567,7 @@
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1446,7 +1582,7 @@
         <v>7</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>67</v>
@@ -1455,7 +1591,7 @@
         <v>501</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,19 +656,19 @@
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
         <v>2.08</v>
@@ -680,10 +680,10 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>8.5</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -704,19 +704,19 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>8</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
@@ -802,13 +802,13 @@
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
         <v>8</v>
@@ -817,7 +817,7 @@
         <v>8.5</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>10</v>
@@ -832,13 +832,13 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -853,10 +853,402 @@
         <v>81</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tW1KuYM5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dhDbPSze</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Metta</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BFC Daugavpils</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>28</v>
+      </c>
+      <c r="X5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hK67N657</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tukums 2000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jelgava</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>27</v>
+      </c>
+      <c r="X6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>48DhoAcE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Super Nova</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FK Liepaja</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>20</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,7 @@
         <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -778,13 +778,13 @@
         <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
         <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="M3" t="n">
         <v>6</v>
@@ -1066,10 +1066,10 @@
         <v>2.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1093,16 +1093,16 @@
         <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
         <v>25</v>
@@ -1111,10 +1111,10 @@
         <v>10.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC6" t="n">
         <v>45</v>
@@ -1123,22 +1123,22 @@
         <v>300</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>7.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
         <v>14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1192,36 +1192,36 @@
         <v>1.7</v>
       </c>
       <c r="P7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V7" t="n">
         <v>8</v>
       </c>
       <c r="W7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB7" t="n">
         <v>12</v>
@@ -1230,25 +1230,513 @@
         <v>55</v>
       </c>
       <c r="AD7" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG7" t="n">
         <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>YaJXV68c</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pohang</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>12</v>
+      </c>
+      <c r="U8" t="n">
+        <v>21</v>
+      </c>
+      <c r="V8" t="n">
+        <v>13</v>
+      </c>
+      <c r="W8" t="n">
+        <v>41</v>
+      </c>
+      <c r="X8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KKyo83Gj</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Jeonbuk</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EL9DQBWH</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IkzEmucm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>12</v>
+      </c>
+      <c r="V11" t="n">
+        <v>11</v>
+      </c>
+      <c r="W11" t="n">
+        <v>26</v>
+      </c>
+      <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,22 +769,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
         <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M3" t="n">
         <v>6</v>
@@ -808,7 +808,7 @@
         <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
         <v>8</v>
@@ -817,7 +817,7 @@
         <v>8.5</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>10</v>
@@ -832,10 +832,10 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD3" t="n">
         <v>151</v>
@@ -853,7 +853,7 @@
         <v>81</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -890,36 +890,80 @@
           <t>Tammeka</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.02</v>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>8</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>16</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1373,372 +1417,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>KKyo83Gj</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>17/06/2025</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>07:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Jeonbuk</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Suwon FC</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EL9DQBWH</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>17/06/2025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>07:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Seoul</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Gangwon</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="T10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>7</v>
-      </c>
-      <c r="V10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>12</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>IkzEmucm</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>17/06/2025</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>12</v>
-      </c>
-      <c r="V11" t="n">
-        <v>11</v>
-      </c>
-      <c r="W11" t="n">
-        <v>26</v>
-      </c>
-      <c r="X11" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
